--- a/municipal/ვაჭრობა/ბაზრების და ბაზრობების რაოდენობა საკუთრების ფორმის მიხედვით/აჭარა ა.რ/ქობულეთის მუნიციპალიტეტი.xlsx
+++ b/municipal/ვაჭრობა/ბაზრების და ბაზრობების რაოდენობა საკუთრების ფორმის მიხედვით/აჭარა ა.რ/ქობულეთის მუნიციპალიტეტი.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etsertsvadze\Desktop\ბაზრები - Copy\ბაზრების და ბაზრობების რაოდენობა საკუთრების ფორმის მიხედვით\აჭარა\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\მომსახურება\ბაზრები მუნიციპალიტეტები\ბ&amp;ბ რაოდენობა საკუთრების ფორმის მიხედვით\ბაზრების და ბაზრობების რაოდენობა საკუთრების ფორმის მიხედვით\აჭარა ა.რ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F47972-9B8A-419B-81C7-0A4674A74DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="17700" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ქობულეთის მუნიციპალიტეტი" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
   <si>
     <t>ბაზრების და ბაზრობების რაოდენობა საკუთრების ფორმის მიხედვით ქობულეთის მუნიციპალიტეტში</t>
   </si>
@@ -44,17 +45,36 @@
     <t>კერძო</t>
   </si>
   <si>
-    <t>... - მონაცემი არ არის ან კონფიდენციალურია</t>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>შენიშვნა:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> "..." - მონაცემი არ არის ან კონფიდენციალურია</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0_);\(0\);\-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +121,14 @@
       <name val="Sylfaen"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -116,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -135,19 +163,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -159,27 +196,33 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,18 +503,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
-    <col min="2" max="10" width="12.7109375" style="12" customWidth="1"/>
-    <col min="11" max="256" width="9.140625" style="12"/>
+    <col min="2" max="16" width="8.7109375" style="12" customWidth="1"/>
+    <col min="17" max="256" width="9.140625" style="12"/>
     <col min="257" max="257" width="15.5703125" style="12" customWidth="1"/>
     <col min="258" max="266" width="12.7109375" style="12" customWidth="1"/>
     <col min="267" max="512" width="9.140625" style="12"/>
@@ -663,21 +704,21 @@
     <col min="16139" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -691,7 +732,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5">
         <v>2013</v>
@@ -720,8 +761,14 @@
       <c r="J3" s="5">
         <v>2021</v>
       </c>
+      <c r="K3" s="5">
+        <v>2022</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -752,8 +799,14 @@
       <c r="J4" s="8">
         <v>2</v>
       </c>
+      <c r="K4" s="8">
+        <v>2</v>
+      </c>
+      <c r="L4" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
@@ -784,40 +837,52 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="K5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
-        <v>2</v>
-      </c>
-      <c r="C6" s="11">
-        <v>2</v>
-      </c>
-      <c r="D6" s="11">
-        <v>2</v>
-      </c>
-      <c r="E6" s="11">
-        <v>2</v>
-      </c>
-      <c r="F6" s="11">
-        <v>2</v>
-      </c>
-      <c r="G6" s="11">
-        <v>2</v>
-      </c>
-      <c r="H6" s="11">
-        <v>2</v>
-      </c>
-      <c r="I6" s="11">
-        <v>2</v>
-      </c>
-      <c r="J6" s="11">
+      <c r="B6" s="15">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15">
+        <v>2</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2</v>
+      </c>
+      <c r="E6" s="15">
+        <v>2</v>
+      </c>
+      <c r="F6" s="15">
+        <v>2</v>
+      </c>
+      <c r="G6" s="15">
+        <v>2</v>
+      </c>
+      <c r="H6" s="15">
+        <v>2</v>
+      </c>
+      <c r="I6" s="15">
+        <v>2</v>
+      </c>
+      <c r="J6" s="15">
+        <v>2</v>
+      </c>
+      <c r="K6" s="15">
+        <v>2</v>
+      </c>
+      <c r="L6" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
@@ -828,9 +893,6 @@
       <c r="F7" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>